--- a/result.xlsx
+++ b/result.xlsx
@@ -25,334 +25,334 @@
     <t>姓名</t>
   </si>
   <si>
+    <t>10050584</t>
+  </si>
+  <si>
+    <t>林冠德</t>
+  </si>
+  <si>
+    <t>10050842</t>
+  </si>
+  <si>
+    <t>陳暉侖</t>
+  </si>
+  <si>
+    <t>10050053</t>
+  </si>
+  <si>
+    <t>張添聿</t>
+  </si>
+  <si>
+    <t>10050780</t>
+  </si>
+  <si>
+    <t>桂廷允</t>
+  </si>
+  <si>
+    <t>10050532</t>
+  </si>
+  <si>
+    <t>龎佑蓉</t>
+  </si>
+  <si>
+    <t>10050876</t>
+  </si>
+  <si>
+    <t>朱代瑋</t>
+  </si>
+  <si>
+    <t>10050655</t>
+  </si>
+  <si>
+    <t>安俊儒</t>
+  </si>
+  <si>
+    <t>10050664</t>
+  </si>
+  <si>
+    <t>林鉉祺</t>
+  </si>
+  <si>
+    <t>10050096</t>
+  </si>
+  <si>
+    <t>江科蔚</t>
+  </si>
+  <si>
+    <t>10050461</t>
+  </si>
+  <si>
+    <t>李維恩</t>
+  </si>
+  <si>
+    <t>10050010</t>
+  </si>
+  <si>
+    <t>約書亞</t>
+  </si>
+  <si>
+    <t>10050390</t>
+  </si>
+  <si>
+    <t>黃韋傑</t>
+  </si>
+  <si>
+    <t>10050593</t>
+  </si>
+  <si>
+    <t>陳昱政</t>
+  </si>
+  <si>
+    <t>10050185</t>
+  </si>
+  <si>
+    <t>林劭恩</t>
+  </si>
+  <si>
+    <t>10050523</t>
+  </si>
+  <si>
+    <t>姚博智</t>
+  </si>
+  <si>
+    <t>10050735</t>
+  </si>
+  <si>
+    <t>林聖恩</t>
+  </si>
+  <si>
+    <t>10050452</t>
+  </si>
+  <si>
+    <t>林家愷</t>
+  </si>
+  <si>
+    <t>10050603</t>
+  </si>
+  <si>
+    <t>吳克祺</t>
+  </si>
+  <si>
+    <t>10050486</t>
+  </si>
+  <si>
+    <t>謝明諭</t>
+  </si>
+  <si>
+    <t>10051040</t>
+  </si>
+  <si>
+    <t>黃奕豪</t>
+  </si>
+  <si>
+    <t>10050222</t>
+  </si>
+  <si>
+    <t>梁 譯</t>
+  </si>
+  <si>
+    <t>10050381</t>
+  </si>
+  <si>
+    <t>吳杰駿</t>
+  </si>
+  <si>
+    <t>08050993</t>
+  </si>
+  <si>
+    <t>卓沅翰</t>
+  </si>
+  <si>
+    <t>10050115</t>
+  </si>
+  <si>
+    <t>邱振凱</t>
+  </si>
+  <si>
+    <t>10050176</t>
+  </si>
+  <si>
+    <t>陳亮勲</t>
+  </si>
+  <si>
     <t>10050505</t>
   </si>
   <si>
     <t>游哲玄</t>
   </si>
   <si>
-    <t>10050532</t>
-  </si>
-  <si>
-    <t>龎佑蓉</t>
-  </si>
-  <si>
-    <t>10050452</t>
-  </si>
-  <si>
-    <t>林家愷</t>
-  </si>
-  <si>
-    <t>10050381</t>
-  </si>
-  <si>
-    <t>吳杰駿</t>
+    <t>10050434</t>
+  </si>
+  <si>
+    <t>陳冠穎</t>
+  </si>
+  <si>
+    <t>10050240</t>
+  </si>
+  <si>
+    <t>王聰賢</t>
+  </si>
+  <si>
+    <t>10050806</t>
+  </si>
+  <si>
+    <t>陳則宇</t>
+  </si>
+  <si>
+    <t>10050204</t>
+  </si>
+  <si>
+    <t>鹿忠翰</t>
+  </si>
+  <si>
+    <t>09053012</t>
+  </si>
+  <si>
+    <t>陳廷瑋</t>
+  </si>
+  <si>
+    <t>10050851</t>
+  </si>
+  <si>
+    <t>賴柏均</t>
+  </si>
+  <si>
+    <t>10050673</t>
+  </si>
+  <si>
+    <t>劉思函</t>
+  </si>
+  <si>
+    <t>10050302</t>
+  </si>
+  <si>
+    <t>曾俊叡</t>
+  </si>
+  <si>
+    <t>09050833</t>
+  </si>
+  <si>
+    <t>蕭詠駿</t>
+  </si>
+  <si>
+    <t>10050425</t>
+  </si>
+  <si>
+    <t>蔡宜榛</t>
+  </si>
+  <si>
+    <t>09050400</t>
+  </si>
+  <si>
+    <t>張政翰</t>
+  </si>
+  <si>
+    <t>10050701</t>
+  </si>
+  <si>
+    <t>周晨亦</t>
+  </si>
+  <si>
+    <t>10050885</t>
+  </si>
+  <si>
+    <t>李沛恩</t>
+  </si>
+  <si>
+    <t>10050860</t>
+  </si>
+  <si>
+    <t>郭建宏</t>
+  </si>
+  <si>
+    <t>10050762</t>
+  </si>
+  <si>
+    <t>黃正瑋</t>
+  </si>
+  <si>
+    <t>10051031</t>
+  </si>
+  <si>
+    <t>曾敬貴</t>
+  </si>
+  <si>
+    <t>10051022</t>
+  </si>
+  <si>
+    <t>陳采彤</t>
+  </si>
+  <si>
+    <t>10050372</t>
+  </si>
+  <si>
+    <t>簡釩軒</t>
+  </si>
+  <si>
+    <t>10050833</t>
+  </si>
+  <si>
+    <t>洪嘉璟</t>
+  </si>
+  <si>
+    <t>10050106</t>
+  </si>
+  <si>
+    <t>楊浚翰</t>
+  </si>
+  <si>
+    <t>10050142</t>
+  </si>
+  <si>
+    <t>呂誌紘</t>
+  </si>
+  <si>
+    <t>09050053</t>
+  </si>
+  <si>
+    <t>黃久納</t>
+  </si>
+  <si>
+    <t>10050345</t>
+  </si>
+  <si>
+    <t>邱苡筑</t>
+  </si>
+  <si>
+    <t>10050550</t>
+  </si>
+  <si>
+    <t>吳晧禎</t>
+  </si>
+  <si>
+    <t>10050133</t>
+  </si>
+  <si>
+    <t>江 宸</t>
+  </si>
+  <si>
+    <t>10050495</t>
+  </si>
+  <si>
+    <t>卓睿祺</t>
+  </si>
+  <si>
+    <t>09050940</t>
+  </si>
+  <si>
+    <t>王尚鵬</t>
+  </si>
+  <si>
+    <t>09050913</t>
+  </si>
+  <si>
+    <t>陳 琛</t>
   </si>
   <si>
     <t>10050753</t>
   </si>
   <si>
     <t>廖家逸</t>
-  </si>
-  <si>
-    <t>10050655</t>
-  </si>
-  <si>
-    <t>安俊儒</t>
-  </si>
-  <si>
-    <t>09050913</t>
-  </si>
-  <si>
-    <t>陳 琛</t>
-  </si>
-  <si>
-    <t>09053012</t>
-  </si>
-  <si>
-    <t>陳廷瑋</t>
-  </si>
-  <si>
-    <t>10051040</t>
-  </si>
-  <si>
-    <t>黃奕豪</t>
-  </si>
-  <si>
-    <t>10050780</t>
-  </si>
-  <si>
-    <t>桂廷允</t>
-  </si>
-  <si>
-    <t>09050053</t>
-  </si>
-  <si>
-    <t>黃久納</t>
-  </si>
-  <si>
-    <t>10051022</t>
-  </si>
-  <si>
-    <t>陳采彤</t>
-  </si>
-  <si>
-    <t>10050185</t>
-  </si>
-  <si>
-    <t>林劭恩</t>
-  </si>
-  <si>
-    <t>10050495</t>
-  </si>
-  <si>
-    <t>卓睿祺</t>
-  </si>
-  <si>
-    <t>10050142</t>
-  </si>
-  <si>
-    <t>呂誌紘</t>
-  </si>
-  <si>
-    <t>09050940</t>
-  </si>
-  <si>
-    <t>王尚鵬</t>
-  </si>
-  <si>
-    <t>10050115</t>
-  </si>
-  <si>
-    <t>邱振凱</t>
-  </si>
-  <si>
-    <t>10050222</t>
-  </si>
-  <si>
-    <t>梁 譯</t>
-  </si>
-  <si>
-    <t>10050593</t>
-  </si>
-  <si>
-    <t>陳昱政</t>
-  </si>
-  <si>
-    <t>10050106</t>
-  </si>
-  <si>
-    <t>楊浚翰</t>
-  </si>
-  <si>
-    <t>09050833</t>
-  </si>
-  <si>
-    <t>蕭詠駿</t>
-  </si>
-  <si>
-    <t>10050584</t>
-  </si>
-  <si>
-    <t>林冠德</t>
-  </si>
-  <si>
-    <t>10050673</t>
-  </si>
-  <si>
-    <t>劉思函</t>
-  </si>
-  <si>
-    <t>10050425</t>
-  </si>
-  <si>
-    <t>蔡宜榛</t>
-  </si>
-  <si>
-    <t>10050372</t>
-  </si>
-  <si>
-    <t>簡釩軒</t>
-  </si>
-  <si>
-    <t>10051031</t>
-  </si>
-  <si>
-    <t>曾敬貴</t>
-  </si>
-  <si>
-    <t>10050345</t>
-  </si>
-  <si>
-    <t>邱苡筑</t>
-  </si>
-  <si>
-    <t>10050176</t>
-  </si>
-  <si>
-    <t>陳亮勲</t>
-  </si>
-  <si>
-    <t>10050735</t>
-  </si>
-  <si>
-    <t>林聖恩</t>
-  </si>
-  <si>
-    <t>10050302</t>
-  </si>
-  <si>
-    <t>曾俊叡</t>
-  </si>
-  <si>
-    <t>10050096</t>
-  </si>
-  <si>
-    <t>江科蔚</t>
-  </si>
-  <si>
-    <t>10050851</t>
-  </si>
-  <si>
-    <t>賴柏均</t>
-  </si>
-  <si>
-    <t>10050860</t>
-  </si>
-  <si>
-    <t>郭建宏</t>
-  </si>
-  <si>
-    <t>10050240</t>
-  </si>
-  <si>
-    <t>王聰賢</t>
-  </si>
-  <si>
-    <t>10050523</t>
-  </si>
-  <si>
-    <t>姚博智</t>
-  </si>
-  <si>
-    <t>10050204</t>
-  </si>
-  <si>
-    <t>鹿忠翰</t>
-  </si>
-  <si>
-    <t>10050762</t>
-  </si>
-  <si>
-    <t>黃正瑋</t>
-  </si>
-  <si>
-    <t>10050885</t>
-  </si>
-  <si>
-    <t>李沛恩</t>
-  </si>
-  <si>
-    <t>10050010</t>
-  </si>
-  <si>
-    <t>約書亞</t>
-  </si>
-  <si>
-    <t>08050993</t>
-  </si>
-  <si>
-    <t>卓沅翰</t>
-  </si>
-  <si>
-    <t>10050550</t>
-  </si>
-  <si>
-    <t>吳晧禎</t>
-  </si>
-  <si>
-    <t>10050434</t>
-  </si>
-  <si>
-    <t>陳冠穎</t>
-  </si>
-  <si>
-    <t>10050133</t>
-  </si>
-  <si>
-    <t>江 宸</t>
-  </si>
-  <si>
-    <t>10050461</t>
-  </si>
-  <si>
-    <t>李維恩</t>
-  </si>
-  <si>
-    <t>10050806</t>
-  </si>
-  <si>
-    <t>陳則宇</t>
-  </si>
-  <si>
-    <t>10050664</t>
-  </si>
-  <si>
-    <t>林鉉祺</t>
-  </si>
-  <si>
-    <t>10050603</t>
-  </si>
-  <si>
-    <t>吳克祺</t>
-  </si>
-  <si>
-    <t>10050053</t>
-  </si>
-  <si>
-    <t>張添聿</t>
-  </si>
-  <si>
-    <t>10050842</t>
-  </si>
-  <si>
-    <t>陳暉侖</t>
-  </si>
-  <si>
-    <t>10050486</t>
-  </si>
-  <si>
-    <t>謝明諭</t>
-  </si>
-  <si>
-    <t>10050876</t>
-  </si>
-  <si>
-    <t>朱代瑋</t>
-  </si>
-  <si>
-    <t>10050833</t>
-  </si>
-  <si>
-    <t>洪嘉璟</t>
-  </si>
-  <si>
-    <t>10050390</t>
-  </si>
-  <si>
-    <t>黃韋傑</t>
-  </si>
-  <si>
-    <t>10050701</t>
-  </si>
-  <si>
-    <t>周晨亦</t>
-  </si>
-  <si>
-    <t>09050400</t>
-  </si>
-  <si>
-    <t>張政翰</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
